--- a/mystore/operations/Продукты.xlsx
+++ b/mystore/operations/Продукты.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D29BF0-27B8-4657-90F5-708CAC2C1D80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B19857A-2EAA-4087-8DEA-F0CF1A1CF3C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="410">
   <si>
     <t>name</t>
   </si>
@@ -1247,6 +1247,9 @@
   </si>
   <si>
     <t>dfbndf</t>
+  </si>
+  <si>
+    <t>discount</t>
   </si>
 </sst>
 </file>
@@ -1564,10 +1567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E400"/>
+  <dimension ref="A1:F400"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1579,7 +1582,7 @@
     <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1595,8 +1598,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1612,8 +1618,12 @@
       <c r="E2">
         <v>1100</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <f>ROUND(1-C2/E2, 2)*100</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1629,8 +1639,12 @@
       <c r="E3">
         <v>2200</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <f>ROUND(1-C3/E3, 2)*100</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1646,8 +1660,12 @@
       <c r="E4">
         <v>3300</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <f t="shared" ref="F4:F67" si="0">ROUND(1-C4/E4, 2)*100</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1663,8 +1681,12 @@
       <c r="E5">
         <v>4400</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <f>ROUND(1-C5/E5, 2)*100</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1680,8 +1702,12 @@
       <c r="E6">
         <v>5500</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1697,8 +1723,12 @@
       <c r="E7">
         <v>6600</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1714,8 +1744,12 @@
       <c r="E8">
         <v>7700</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1731,8 +1765,12 @@
       <c r="E9">
         <v>8800</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1748,8 +1786,12 @@
       <c r="E10">
         <v>9900</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1765,8 +1807,12 @@
       <c r="E11">
         <v>11000</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1782,8 +1828,12 @@
       <c r="E12">
         <v>12100</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1799,8 +1849,12 @@
       <c r="E13">
         <v>13200</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1816,8 +1870,12 @@
       <c r="E14">
         <v>14300</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1833,8 +1891,12 @@
       <c r="E15">
         <v>15400</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1850,8 +1912,12 @@
       <c r="E16">
         <v>16500</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1867,8 +1933,12 @@
       <c r="E17">
         <v>17600</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1884,8 +1954,12 @@
       <c r="E18">
         <v>18700</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1901,8 +1975,12 @@
       <c r="E19">
         <v>19800</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1918,8 +1996,12 @@
       <c r="E20">
         <v>20900</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1935,8 +2017,12 @@
       <c r="E21">
         <v>22000</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1952,8 +2038,12 @@
       <c r="E22">
         <v>23100</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1969,8 +2059,12 @@
       <c r="E23">
         <v>24200</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1986,8 +2080,12 @@
       <c r="E24">
         <v>25300</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -2003,8 +2101,12 @@
       <c r="E25">
         <v>26400</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -2020,8 +2122,12 @@
       <c r="E26">
         <v>27500</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -2037,8 +2143,12 @@
       <c r="E27">
         <v>28600</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -2054,8 +2164,12 @@
       <c r="E28">
         <v>29700</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -2071,8 +2185,12 @@
       <c r="E29">
         <v>30800</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -2088,8 +2206,12 @@
       <c r="E30">
         <v>31900</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -2105,8 +2227,12 @@
       <c r="E31">
         <v>33000</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -2122,8 +2248,12 @@
       <c r="E32">
         <v>34100</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -2139,8 +2269,12 @@
       <c r="E33">
         <v>35200</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -2156,8 +2290,12 @@
       <c r="E34">
         <v>36300</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -2173,8 +2311,12 @@
       <c r="E35">
         <v>37400</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -2190,8 +2332,12 @@
       <c r="E36">
         <v>38500</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -2207,8 +2353,12 @@
       <c r="E37">
         <v>39600</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -2224,8 +2374,12 @@
       <c r="E38">
         <v>40700</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -2241,8 +2395,12 @@
       <c r="E39">
         <v>41800</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -2258,8 +2416,12 @@
       <c r="E40">
         <v>42900</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -2275,8 +2437,12 @@
       <c r="E41">
         <v>44000</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -2292,8 +2458,12 @@
       <c r="E42">
         <v>45100</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -2309,8 +2479,12 @@
       <c r="E43">
         <v>46200</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -2326,8 +2500,12 @@
       <c r="E44">
         <v>47300</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -2343,8 +2521,12 @@
       <c r="E45">
         <v>48400</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -2360,8 +2542,12 @@
       <c r="E46">
         <v>49500</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -2377,8 +2563,12 @@
       <c r="E47">
         <v>50600</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -2394,8 +2584,12 @@
       <c r="E48">
         <v>51700</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -2411,8 +2605,12 @@
       <c r="E49">
         <v>52800</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -2428,8 +2626,12 @@
       <c r="E50">
         <v>53900</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -2445,8 +2647,12 @@
       <c r="E51">
         <v>55000</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -2462,8 +2668,12 @@
       <c r="E52">
         <v>56100</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -2479,8 +2689,12 @@
       <c r="E53">
         <v>57200</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -2496,8 +2710,12 @@
       <c r="E54">
         <v>58300</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>58</v>
       </c>
@@ -2513,8 +2731,12 @@
       <c r="E55">
         <v>59400</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -2530,8 +2752,12 @@
       <c r="E56">
         <v>60500</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -2547,8 +2773,12 @@
       <c r="E57">
         <v>61600</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>61</v>
       </c>
@@ -2564,8 +2794,12 @@
       <c r="E58">
         <v>62700</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>62</v>
       </c>
@@ -2581,8 +2815,12 @@
       <c r="E59">
         <v>63800</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>63</v>
       </c>
@@ -2598,8 +2836,12 @@
       <c r="E60">
         <v>64900</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>64</v>
       </c>
@@ -2615,8 +2857,12 @@
       <c r="E61">
         <v>66000</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>65</v>
       </c>
@@ -2632,8 +2878,12 @@
       <c r="E62">
         <v>67100</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>66</v>
       </c>
@@ -2649,8 +2899,12 @@
       <c r="E63">
         <v>68200</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>67</v>
       </c>
@@ -2666,8 +2920,12 @@
       <c r="E64">
         <v>69300</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>68</v>
       </c>
@@ -2683,8 +2941,12 @@
       <c r="E65">
         <v>70400</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>69</v>
       </c>
@@ -2700,8 +2962,12 @@
       <c r="E66">
         <v>71500</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>70</v>
       </c>
@@ -2717,8 +2983,12 @@
       <c r="E67">
         <v>72600</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>71</v>
       </c>
@@ -2734,8 +3004,12 @@
       <c r="E68">
         <v>73700</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <f t="shared" ref="F68:F131" si="1">ROUND(1-C68/E68, 2)*100</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>72</v>
       </c>
@@ -2751,8 +3025,12 @@
       <c r="E69">
         <v>74800</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>73</v>
       </c>
@@ -2768,8 +3046,12 @@
       <c r="E70">
         <v>75900</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>74</v>
       </c>
@@ -2785,8 +3067,12 @@
       <c r="E71">
         <v>77000</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>75</v>
       </c>
@@ -2802,8 +3088,12 @@
       <c r="E72">
         <v>78100</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>76</v>
       </c>
@@ -2819,8 +3109,12 @@
       <c r="E73">
         <v>79200</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>77</v>
       </c>
@@ -2836,8 +3130,12 @@
       <c r="E74">
         <v>80300</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>78</v>
       </c>
@@ -2853,8 +3151,12 @@
       <c r="E75">
         <v>81400</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>79</v>
       </c>
@@ -2870,8 +3172,12 @@
       <c r="E76">
         <v>82500</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>80</v>
       </c>
@@ -2887,8 +3193,12 @@
       <c r="E77">
         <v>83600</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>81</v>
       </c>
@@ -2904,8 +3214,12 @@
       <c r="E78">
         <v>84700</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>82</v>
       </c>
@@ -2921,8 +3235,12 @@
       <c r="E79">
         <v>85800</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>83</v>
       </c>
@@ -2938,8 +3256,12 @@
       <c r="E80">
         <v>86900</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>84</v>
       </c>
@@ -2955,8 +3277,12 @@
       <c r="E81">
         <v>88000</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F81">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>85</v>
       </c>
@@ -2972,8 +3298,12 @@
       <c r="E82">
         <v>89100</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F82">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>86</v>
       </c>
@@ -2989,8 +3319,12 @@
       <c r="E83">
         <v>90200</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F83">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>87</v>
       </c>
@@ -3006,8 +3340,12 @@
       <c r="E84">
         <v>91300</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F84">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>88</v>
       </c>
@@ -3023,8 +3361,12 @@
       <c r="E85">
         <v>92400</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F85">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>89</v>
       </c>
@@ -3040,8 +3382,12 @@
       <c r="E86">
         <v>93500</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F86">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>90</v>
       </c>
@@ -3057,8 +3403,12 @@
       <c r="E87">
         <v>94600</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F87">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>91</v>
       </c>
@@ -3074,8 +3424,12 @@
       <c r="E88">
         <v>95700</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F88">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>92</v>
       </c>
@@ -3091,8 +3445,12 @@
       <c r="E89">
         <v>96800</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F89">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>93</v>
       </c>
@@ -3108,8 +3466,12 @@
       <c r="E90">
         <v>97900</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F90">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>94</v>
       </c>
@@ -3125,8 +3487,12 @@
       <c r="E91">
         <v>99000</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F91">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>95</v>
       </c>
@@ -3142,8 +3508,12 @@
       <c r="E92">
         <v>100100</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F92">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>96</v>
       </c>
@@ -3159,8 +3529,12 @@
       <c r="E93">
         <v>101200</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F93">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>97</v>
       </c>
@@ -3176,8 +3550,12 @@
       <c r="E94">
         <v>102300</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F94">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>98</v>
       </c>
@@ -3193,8 +3571,12 @@
       <c r="E95">
         <v>103400</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F95">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>99</v>
       </c>
@@ -3210,8 +3592,12 @@
       <c r="E96">
         <v>104500</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F96">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>100</v>
       </c>
@@ -3227,8 +3613,12 @@
       <c r="E97">
         <v>105600</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F97">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>101</v>
       </c>
@@ -3244,8 +3634,12 @@
       <c r="E98">
         <v>106700</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F98">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>102</v>
       </c>
@@ -3261,8 +3655,12 @@
       <c r="E99">
         <v>107800</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F99">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>103</v>
       </c>
@@ -3278,8 +3676,12 @@
       <c r="E100">
         <v>108900</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F100">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>104</v>
       </c>
@@ -3295,8 +3697,12 @@
       <c r="E101">
         <v>110000</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F101">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>105</v>
       </c>
@@ -3312,8 +3718,12 @@
       <c r="E102">
         <v>111100</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F102">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>106</v>
       </c>
@@ -3329,8 +3739,12 @@
       <c r="E103">
         <v>112200</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F103">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>107</v>
       </c>
@@ -3346,8 +3760,12 @@
       <c r="E104">
         <v>113300</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F104">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>108</v>
       </c>
@@ -3363,8 +3781,12 @@
       <c r="E105">
         <v>114400</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F105">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>109</v>
       </c>
@@ -3380,8 +3802,12 @@
       <c r="E106">
         <v>115500</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F106">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>110</v>
       </c>
@@ -3397,8 +3823,12 @@
       <c r="E107">
         <v>116600</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F107">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>111</v>
       </c>
@@ -3414,8 +3844,12 @@
       <c r="E108">
         <v>117700</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F108">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>112</v>
       </c>
@@ -3431,8 +3865,12 @@
       <c r="E109">
         <v>118800</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F109">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>113</v>
       </c>
@@ -3448,8 +3886,12 @@
       <c r="E110">
         <v>119900</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F110">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>114</v>
       </c>
@@ -3465,8 +3907,12 @@
       <c r="E111">
         <v>121000</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F111">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>115</v>
       </c>
@@ -3482,8 +3928,12 @@
       <c r="E112">
         <v>122100</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F112">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>116</v>
       </c>
@@ -3499,8 +3949,12 @@
       <c r="E113">
         <v>123200</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F113">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>117</v>
       </c>
@@ -3516,8 +3970,12 @@
       <c r="E114">
         <v>124300</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F114">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>118</v>
       </c>
@@ -3533,8 +3991,12 @@
       <c r="E115">
         <v>125400</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F115">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>119</v>
       </c>
@@ -3550,8 +4012,12 @@
       <c r="E116">
         <v>126500</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F116">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>120</v>
       </c>
@@ -3567,8 +4033,12 @@
       <c r="E117">
         <v>127600</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F117">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>121</v>
       </c>
@@ -3584,8 +4054,12 @@
       <c r="E118">
         <v>128700</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F118">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>122</v>
       </c>
@@ -3601,8 +4075,12 @@
       <c r="E119">
         <v>129800</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F119">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>123</v>
       </c>
@@ -3618,8 +4096,12 @@
       <c r="E120">
         <v>130900</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F120">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>124</v>
       </c>
@@ -3635,8 +4117,12 @@
       <c r="E121">
         <v>132000</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F121">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>125</v>
       </c>
@@ -3652,8 +4138,12 @@
       <c r="E122">
         <v>133100</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F122">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>126</v>
       </c>
@@ -3669,8 +4159,12 @@
       <c r="E123">
         <v>134200</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F123">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>127</v>
       </c>
@@ -3686,8 +4180,12 @@
       <c r="E124">
         <v>135300</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F124">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>128</v>
       </c>
@@ -3703,8 +4201,12 @@
       <c r="E125">
         <v>136400</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F125">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>129</v>
       </c>
@@ -3720,8 +4222,12 @@
       <c r="E126">
         <v>137500</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F126">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>130</v>
       </c>
@@ -3737,8 +4243,12 @@
       <c r="E127">
         <v>138600</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F127">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>131</v>
       </c>
@@ -3754,8 +4264,12 @@
       <c r="E128">
         <v>139700</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F128">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>132</v>
       </c>
@@ -3771,8 +4285,12 @@
       <c r="E129">
         <v>140800</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F129">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>133</v>
       </c>
@@ -3788,8 +4306,12 @@
       <c r="E130">
         <v>141900</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F130">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>134</v>
       </c>
@@ -3805,8 +4327,12 @@
       <c r="E131">
         <v>143000</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F131">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>135</v>
       </c>
@@ -3822,8 +4348,12 @@
       <c r="E132">
         <v>144100</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F132">
+        <f t="shared" ref="F132:F195" si="2">ROUND(1-C132/E132, 2)*100</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>136</v>
       </c>
@@ -3839,8 +4369,12 @@
       <c r="E133">
         <v>145200</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F133">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>137</v>
       </c>
@@ -3856,8 +4390,12 @@
       <c r="E134">
         <v>146300</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F134">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>138</v>
       </c>
@@ -3873,8 +4411,12 @@
       <c r="E135">
         <v>147400</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F135">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>139</v>
       </c>
@@ -3890,8 +4432,12 @@
       <c r="E136">
         <v>148500</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F136">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>140</v>
       </c>
@@ -3907,8 +4453,12 @@
       <c r="E137">
         <v>149600</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F137">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>141</v>
       </c>
@@ -3924,8 +4474,12 @@
       <c r="E138">
         <v>150700</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F138">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>142</v>
       </c>
@@ -3941,8 +4495,12 @@
       <c r="E139">
         <v>151800</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F139">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>143</v>
       </c>
@@ -3958,8 +4516,12 @@
       <c r="E140">
         <v>152900</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F140">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>144</v>
       </c>
@@ -3975,8 +4537,12 @@
       <c r="E141">
         <v>154000</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F141">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>145</v>
       </c>
@@ -3992,8 +4558,12 @@
       <c r="E142">
         <v>155100</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F142">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>146</v>
       </c>
@@ -4009,8 +4579,12 @@
       <c r="E143">
         <v>156200</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F143">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>147</v>
       </c>
@@ -4026,8 +4600,12 @@
       <c r="E144">
         <v>157300</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F144">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>148</v>
       </c>
@@ -4043,8 +4621,12 @@
       <c r="E145">
         <v>158400</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F145">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>149</v>
       </c>
@@ -4060,8 +4642,12 @@
       <c r="E146">
         <v>159500</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F146">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>150</v>
       </c>
@@ -4077,8 +4663,12 @@
       <c r="E147">
         <v>160600</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F147">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>151</v>
       </c>
@@ -4094,8 +4684,12 @@
       <c r="E148">
         <v>161700</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F148">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>152</v>
       </c>
@@ -4111,8 +4705,12 @@
       <c r="E149">
         <v>162800</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F149">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>153</v>
       </c>
@@ -4128,8 +4726,12 @@
       <c r="E150">
         <v>163900</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F150">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>154</v>
       </c>
@@ -4145,8 +4747,12 @@
       <c r="E151">
         <v>165000</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F151">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>155</v>
       </c>
@@ -4162,8 +4768,12 @@
       <c r="E152">
         <v>166100</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F152">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>156</v>
       </c>
@@ -4179,8 +4789,12 @@
       <c r="E153">
         <v>167200</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F153">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>157</v>
       </c>
@@ -4196,8 +4810,12 @@
       <c r="E154">
         <v>168300</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F154">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>158</v>
       </c>
@@ -4213,8 +4831,12 @@
       <c r="E155">
         <v>169400</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F155">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>159</v>
       </c>
@@ -4230,8 +4852,12 @@
       <c r="E156">
         <v>170500</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F156">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>160</v>
       </c>
@@ -4247,8 +4873,12 @@
       <c r="E157">
         <v>171600</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F157">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>161</v>
       </c>
@@ -4264,8 +4894,12 @@
       <c r="E158">
         <v>172700</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F158">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>162</v>
       </c>
@@ -4281,8 +4915,12 @@
       <c r="E159">
         <v>173800</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F159">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>163</v>
       </c>
@@ -4298,8 +4936,12 @@
       <c r="E160">
         <v>174900</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F160">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>164</v>
       </c>
@@ -4315,8 +4957,12 @@
       <c r="E161">
         <v>176000</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F161">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>165</v>
       </c>
@@ -4332,8 +4978,12 @@
       <c r="E162">
         <v>177100</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F162">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>166</v>
       </c>
@@ -4349,8 +4999,12 @@
       <c r="E163">
         <v>178200</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F163">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>167</v>
       </c>
@@ -4366,8 +5020,12 @@
       <c r="E164">
         <v>179300</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F164">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>168</v>
       </c>
@@ -4383,8 +5041,12 @@
       <c r="E165">
         <v>180400</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F165">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>169</v>
       </c>
@@ -4400,8 +5062,12 @@
       <c r="E166">
         <v>181500</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F166">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>170</v>
       </c>
@@ -4417,8 +5083,12 @@
       <c r="E167">
         <v>182600</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F167">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>171</v>
       </c>
@@ -4434,8 +5104,12 @@
       <c r="E168">
         <v>183700</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F168">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>172</v>
       </c>
@@ -4451,8 +5125,12 @@
       <c r="E169">
         <v>184800</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F169">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>173</v>
       </c>
@@ -4468,8 +5146,12 @@
       <c r="E170">
         <v>185900</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F170">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>174</v>
       </c>
@@ -4485,8 +5167,12 @@
       <c r="E171">
         <v>187000</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F171">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>175</v>
       </c>
@@ -4502,8 +5188,12 @@
       <c r="E172">
         <v>188100</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F172">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>176</v>
       </c>
@@ -4519,8 +5209,12 @@
       <c r="E173">
         <v>189200</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F173">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>177</v>
       </c>
@@ -4536,8 +5230,12 @@
       <c r="E174">
         <v>190300</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F174">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>178</v>
       </c>
@@ -4553,8 +5251,12 @@
       <c r="E175">
         <v>191400</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F175">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>179</v>
       </c>
@@ -4570,8 +5272,12 @@
       <c r="E176">
         <v>192500</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F176">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>180</v>
       </c>
@@ -4587,8 +5293,12 @@
       <c r="E177">
         <v>193600</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F177">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>181</v>
       </c>
@@ -4604,8 +5314,12 @@
       <c r="E178">
         <v>194700</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F178">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>182</v>
       </c>
@@ -4621,8 +5335,12 @@
       <c r="E179">
         <v>195800</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F179">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>183</v>
       </c>
@@ -4638,8 +5356,12 @@
       <c r="E180">
         <v>196900</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F180">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>184</v>
       </c>
@@ -4655,8 +5377,12 @@
       <c r="E181">
         <v>198000</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F181">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>185</v>
       </c>
@@ -4672,8 +5398,12 @@
       <c r="E182">
         <v>199100</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F182">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>186</v>
       </c>
@@ -4689,8 +5419,12 @@
       <c r="E183">
         <v>200200</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F183">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>187</v>
       </c>
@@ -4706,8 +5440,12 @@
       <c r="E184">
         <v>201300</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F184">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>188</v>
       </c>
@@ -4723,8 +5461,12 @@
       <c r="E185">
         <v>202400</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F185">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>189</v>
       </c>
@@ -4740,8 +5482,12 @@
       <c r="E186">
         <v>203500</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F186">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>190</v>
       </c>
@@ -4757,8 +5503,12 @@
       <c r="E187">
         <v>204600</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F187">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>191</v>
       </c>
@@ -4774,8 +5524,12 @@
       <c r="E188">
         <v>205700</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F188">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>192</v>
       </c>
@@ -4791,8 +5545,12 @@
       <c r="E189">
         <v>206800</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F189">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>193</v>
       </c>
@@ -4808,8 +5566,12 @@
       <c r="E190">
         <v>207900</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F190">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>194</v>
       </c>
@@ -4825,8 +5587,12 @@
       <c r="E191">
         <v>209000</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F191">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>195</v>
       </c>
@@ -4842,8 +5608,12 @@
       <c r="E192">
         <v>210100</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F192">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>196</v>
       </c>
@@ -4859,8 +5629,12 @@
       <c r="E193">
         <v>211200</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F193">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>197</v>
       </c>
@@ -4876,8 +5650,12 @@
       <c r="E194">
         <v>212300</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F194">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>198</v>
       </c>
@@ -4893,8 +5671,12 @@
       <c r="E195">
         <v>213400</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F195">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>199</v>
       </c>
@@ -4910,8 +5692,12 @@
       <c r="E196">
         <v>214500</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F196">
+        <f t="shared" ref="F196:F259" si="3">ROUND(1-C196/E196, 2)*100</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>200</v>
       </c>
@@ -4927,8 +5713,12 @@
       <c r="E197">
         <v>215600</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F197">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>201</v>
       </c>
@@ -4944,8 +5734,12 @@
       <c r="E198">
         <v>216700</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F198">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>202</v>
       </c>
@@ -4961,8 +5755,12 @@
       <c r="E199">
         <v>217800</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F199">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>203</v>
       </c>
@@ -4978,8 +5776,12 @@
       <c r="E200">
         <v>218900</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F200">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>204</v>
       </c>
@@ -4995,8 +5797,12 @@
       <c r="E201">
         <v>220000</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F201">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>205</v>
       </c>
@@ -5012,8 +5818,12 @@
       <c r="E202">
         <v>221100</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F202">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>206</v>
       </c>
@@ -5029,8 +5839,12 @@
       <c r="E203">
         <v>222200</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F203">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>207</v>
       </c>
@@ -5046,8 +5860,12 @@
       <c r="E204">
         <v>223300</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F204">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>208</v>
       </c>
@@ -5063,8 +5881,12 @@
       <c r="E205">
         <v>224400</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F205">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>209</v>
       </c>
@@ -5080,8 +5902,12 @@
       <c r="E206">
         <v>225500</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F206">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>210</v>
       </c>
@@ -5097,8 +5923,12 @@
       <c r="E207">
         <v>226600</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F207">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>211</v>
       </c>
@@ -5114,8 +5944,12 @@
       <c r="E208">
         <v>227700</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F208">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>212</v>
       </c>
@@ -5131,8 +5965,12 @@
       <c r="E209">
         <v>228800</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F209">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>213</v>
       </c>
@@ -5148,8 +5986,12 @@
       <c r="E210">
         <v>229900</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F210">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>214</v>
       </c>
@@ -5165,8 +6007,12 @@
       <c r="E211">
         <v>231000</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F211">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>215</v>
       </c>
@@ -5182,8 +6028,12 @@
       <c r="E212">
         <v>232100</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F212">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>216</v>
       </c>
@@ -5199,8 +6049,12 @@
       <c r="E213">
         <v>233200</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F213">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>217</v>
       </c>
@@ -5216,8 +6070,12 @@
       <c r="E214">
         <v>234300</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F214">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>218</v>
       </c>
@@ -5233,8 +6091,12 @@
       <c r="E215">
         <v>235400</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F215">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>219</v>
       </c>
@@ -5250,8 +6112,12 @@
       <c r="E216">
         <v>236500</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F216">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>220</v>
       </c>
@@ -5267,8 +6133,12 @@
       <c r="E217">
         <v>237600</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F217">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>221</v>
       </c>
@@ -5284,8 +6154,12 @@
       <c r="E218">
         <v>238700</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F218">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>222</v>
       </c>
@@ -5301,8 +6175,12 @@
       <c r="E219">
         <v>239800</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F219">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>223</v>
       </c>
@@ -5318,8 +6196,12 @@
       <c r="E220">
         <v>240900</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F220">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>224</v>
       </c>
@@ -5335,8 +6217,12 @@
       <c r="E221">
         <v>242000</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F221">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>225</v>
       </c>
@@ -5352,8 +6238,12 @@
       <c r="E222">
         <v>243100</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F222">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>226</v>
       </c>
@@ -5369,8 +6259,12 @@
       <c r="E223">
         <v>244200</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F223">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>227</v>
       </c>
@@ -5386,8 +6280,12 @@
       <c r="E224">
         <v>245300</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F224">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>228</v>
       </c>
@@ -5403,8 +6301,12 @@
       <c r="E225">
         <v>246400</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F225">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>229</v>
       </c>
@@ -5420,8 +6322,12 @@
       <c r="E226">
         <v>247500</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F226">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>230</v>
       </c>
@@ -5437,8 +6343,12 @@
       <c r="E227">
         <v>248600</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F227">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>231</v>
       </c>
@@ -5454,8 +6364,12 @@
       <c r="E228">
         <v>249700</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F228">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>232</v>
       </c>
@@ -5471,8 +6385,12 @@
       <c r="E229">
         <v>250800</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F229">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>233</v>
       </c>
@@ -5488,8 +6406,12 @@
       <c r="E230">
         <v>251900</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F230">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>234</v>
       </c>
@@ -5505,8 +6427,12 @@
       <c r="E231">
         <v>253000</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F231">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>235</v>
       </c>
@@ -5522,8 +6448,12 @@
       <c r="E232">
         <v>254100</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F232">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>236</v>
       </c>
@@ -5539,8 +6469,12 @@
       <c r="E233">
         <v>255200</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F233">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>237</v>
       </c>
@@ -5556,8 +6490,12 @@
       <c r="E234">
         <v>256300</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F234">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>238</v>
       </c>
@@ -5573,8 +6511,12 @@
       <c r="E235">
         <v>257400</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F235">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>239</v>
       </c>
@@ -5590,8 +6532,12 @@
       <c r="E236">
         <v>258500</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F236">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>240</v>
       </c>
@@ -5607,8 +6553,12 @@
       <c r="E237">
         <v>259600</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F237">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>241</v>
       </c>
@@ -5624,8 +6574,12 @@
       <c r="E238">
         <v>260700</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F238">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>242</v>
       </c>
@@ -5641,8 +6595,12 @@
       <c r="E239">
         <v>261800</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F239">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>243</v>
       </c>
@@ -5658,8 +6616,12 @@
       <c r="E240">
         <v>262900</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F240">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>244</v>
       </c>
@@ -5675,8 +6637,12 @@
       <c r="E241">
         <v>264000</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F241">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>245</v>
       </c>
@@ -5692,8 +6658,12 @@
       <c r="E242">
         <v>265100</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F242">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>246</v>
       </c>
@@ -5709,8 +6679,12 @@
       <c r="E243">
         <v>266200</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F243">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>247</v>
       </c>
@@ -5726,8 +6700,12 @@
       <c r="E244">
         <v>267300</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F244">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>248</v>
       </c>
@@ -5743,8 +6721,12 @@
       <c r="E245">
         <v>268400</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F245">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>249</v>
       </c>
@@ -5760,8 +6742,12 @@
       <c r="E246">
         <v>269500</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F246">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>250</v>
       </c>
@@ -5777,8 +6763,12 @@
       <c r="E247">
         <v>270600</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F247">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>251</v>
       </c>
@@ -5794,8 +6784,12 @@
       <c r="E248">
         <v>271700</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F248">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>252</v>
       </c>
@@ -5811,8 +6805,12 @@
       <c r="E249">
         <v>272800</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F249">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>253</v>
       </c>
@@ -5828,8 +6826,12 @@
       <c r="E250">
         <v>273900</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F250">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>254</v>
       </c>
@@ -5845,8 +6847,12 @@
       <c r="E251">
         <v>275000</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F251">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>255</v>
       </c>
@@ -5862,8 +6868,12 @@
       <c r="E252">
         <v>276100</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F252">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>256</v>
       </c>
@@ -5879,8 +6889,12 @@
       <c r="E253">
         <v>277200</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F253">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>257</v>
       </c>
@@ -5896,8 +6910,12 @@
       <c r="E254">
         <v>278300</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F254">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>258</v>
       </c>
@@ -5913,8 +6931,12 @@
       <c r="E255">
         <v>279400</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F255">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>259</v>
       </c>
@@ -5930,8 +6952,12 @@
       <c r="E256">
         <v>280500</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F256">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>260</v>
       </c>
@@ -5947,8 +6973,12 @@
       <c r="E257">
         <v>281600</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F257">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>261</v>
       </c>
@@ -5964,8 +6994,12 @@
       <c r="E258">
         <v>282700</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F258">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>262</v>
       </c>
@@ -5981,8 +7015,12 @@
       <c r="E259">
         <v>283800</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F259">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>263</v>
       </c>
@@ -5998,8 +7036,12 @@
       <c r="E260">
         <v>284900</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F260">
+        <f t="shared" ref="F260:F323" si="4">ROUND(1-C260/E260, 2)*100</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>264</v>
       </c>
@@ -6015,8 +7057,12 @@
       <c r="E261">
         <v>286000</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F261">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>265</v>
       </c>
@@ -6032,8 +7078,12 @@
       <c r="E262">
         <v>287100</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F262">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>266</v>
       </c>
@@ -6049,8 +7099,12 @@
       <c r="E263">
         <v>288200</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F263">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>267</v>
       </c>
@@ -6066,8 +7120,12 @@
       <c r="E264">
         <v>289300</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F264">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>268</v>
       </c>
@@ -6083,8 +7141,12 @@
       <c r="E265">
         <v>290400</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F265">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>269</v>
       </c>
@@ -6100,8 +7162,12 @@
       <c r="E266">
         <v>291500</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F266">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>270</v>
       </c>
@@ -6117,8 +7183,12 @@
       <c r="E267">
         <v>292600</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F267">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>271</v>
       </c>
@@ -6134,8 +7204,12 @@
       <c r="E268">
         <v>293700</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F268">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>272</v>
       </c>
@@ -6151,8 +7225,12 @@
       <c r="E269">
         <v>294800</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F269">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>273</v>
       </c>
@@ -6168,8 +7246,12 @@
       <c r="E270">
         <v>295900</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F270">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>274</v>
       </c>
@@ -6185,8 +7267,12 @@
       <c r="E271">
         <v>297000</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F271">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>275</v>
       </c>
@@ -6202,8 +7288,12 @@
       <c r="E272">
         <v>298100</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F272">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>276</v>
       </c>
@@ -6219,8 +7309,12 @@
       <c r="E273">
         <v>299200</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F273">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>277</v>
       </c>
@@ -6236,8 +7330,12 @@
       <c r="E274">
         <v>300300</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F274">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>278</v>
       </c>
@@ -6253,8 +7351,12 @@
       <c r="E275">
         <v>301400</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F275">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>279</v>
       </c>
@@ -6270,8 +7372,12 @@
       <c r="E276">
         <v>302500</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F276">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>280</v>
       </c>
@@ -6287,8 +7393,12 @@
       <c r="E277">
         <v>303600</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F277">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>281</v>
       </c>
@@ -6304,8 +7414,12 @@
       <c r="E278">
         <v>304700</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F278">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>282</v>
       </c>
@@ -6321,8 +7435,12 @@
       <c r="E279">
         <v>305800</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F279">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>283</v>
       </c>
@@ -6338,8 +7456,12 @@
       <c r="E280">
         <v>306900</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F280">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>284</v>
       </c>
@@ -6355,8 +7477,12 @@
       <c r="E281">
         <v>308000</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F281">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>285</v>
       </c>
@@ -6372,8 +7498,12 @@
       <c r="E282">
         <v>309100</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F282">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>286</v>
       </c>
@@ -6389,8 +7519,12 @@
       <c r="E283">
         <v>310200</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F283">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>287</v>
       </c>
@@ -6406,8 +7540,12 @@
       <c r="E284">
         <v>311300</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F284">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>288</v>
       </c>
@@ -6423,8 +7561,12 @@
       <c r="E285">
         <v>312400</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F285">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>289</v>
       </c>
@@ -6440,8 +7582,12 @@
       <c r="E286">
         <v>313500</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F286">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>290</v>
       </c>
@@ -6457,8 +7603,12 @@
       <c r="E287">
         <v>314600</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F287">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>291</v>
       </c>
@@ -6474,8 +7624,12 @@
       <c r="E288">
         <v>315700</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F288">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>292</v>
       </c>
@@ -6491,8 +7645,12 @@
       <c r="E289">
         <v>316800</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F289">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>293</v>
       </c>
@@ -6508,8 +7666,12 @@
       <c r="E290">
         <v>317900</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F290">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>294</v>
       </c>
@@ -6525,8 +7687,12 @@
       <c r="E291">
         <v>319000</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F291">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>295</v>
       </c>
@@ -6542,8 +7708,12 @@
       <c r="E292">
         <v>320100</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F292">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>296</v>
       </c>
@@ -6559,8 +7729,12 @@
       <c r="E293">
         <v>321200</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F293">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>297</v>
       </c>
@@ -6576,8 +7750,12 @@
       <c r="E294">
         <v>322300</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F294">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>298</v>
       </c>
@@ -6593,8 +7771,12 @@
       <c r="E295">
         <v>323400</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F295">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>299</v>
       </c>
@@ -6610,8 +7792,12 @@
       <c r="E296">
         <v>324500</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F296">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>300</v>
       </c>
@@ -6627,8 +7813,12 @@
       <c r="E297">
         <v>325600</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F297">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>301</v>
       </c>
@@ -6644,8 +7834,12 @@
       <c r="E298">
         <v>326700</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F298">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>302</v>
       </c>
@@ -6661,8 +7855,12 @@
       <c r="E299">
         <v>327800</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F299">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>303</v>
       </c>
@@ -6678,8 +7876,12 @@
       <c r="E300">
         <v>328900</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F300">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>304</v>
       </c>
@@ -6695,8 +7897,12 @@
       <c r="E301">
         <v>330000</v>
       </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F301">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>305</v>
       </c>
@@ -6712,8 +7918,12 @@
       <c r="E302">
         <v>331100</v>
       </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F302">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>306</v>
       </c>
@@ -6729,8 +7939,12 @@
       <c r="E303">
         <v>332200</v>
       </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F303">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>307</v>
       </c>
@@ -6746,8 +7960,12 @@
       <c r="E304">
         <v>333300</v>
       </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F304">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>308</v>
       </c>
@@ -6763,8 +7981,12 @@
       <c r="E305">
         <v>334400</v>
       </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F305">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>309</v>
       </c>
@@ -6780,8 +8002,12 @@
       <c r="E306">
         <v>335500</v>
       </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F306">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>310</v>
       </c>
@@ -6797,8 +8023,12 @@
       <c r="E307">
         <v>336600</v>
       </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F307">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>311</v>
       </c>
@@ -6814,8 +8044,12 @@
       <c r="E308">
         <v>337700</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F308">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>312</v>
       </c>
@@ -6831,8 +8065,12 @@
       <c r="E309">
         <v>338800</v>
       </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F309">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>313</v>
       </c>
@@ -6848,8 +8086,12 @@
       <c r="E310">
         <v>339900</v>
       </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F310">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>314</v>
       </c>
@@ -6865,8 +8107,12 @@
       <c r="E311">
         <v>341000</v>
       </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F311">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>315</v>
       </c>
@@ -6882,8 +8128,12 @@
       <c r="E312">
         <v>342100</v>
       </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F312">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>316</v>
       </c>
@@ -6899,8 +8149,12 @@
       <c r="E313">
         <v>343200</v>
       </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F313">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>317</v>
       </c>
@@ -6916,8 +8170,12 @@
       <c r="E314">
         <v>344300</v>
       </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F314">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>318</v>
       </c>
@@ -6933,8 +8191,12 @@
       <c r="E315">
         <v>345400</v>
       </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F315">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>319</v>
       </c>
@@ -6950,8 +8212,12 @@
       <c r="E316">
         <v>346500</v>
       </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F316">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>320</v>
       </c>
@@ -6967,8 +8233,12 @@
       <c r="E317">
         <v>347600</v>
       </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F317">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>321</v>
       </c>
@@ -6984,8 +8254,12 @@
       <c r="E318">
         <v>348700</v>
       </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F318">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>322</v>
       </c>
@@ -7001,8 +8275,12 @@
       <c r="E319">
         <v>349800</v>
       </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F319">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>323</v>
       </c>
@@ -7018,8 +8296,12 @@
       <c r="E320">
         <v>350900</v>
       </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F320">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>324</v>
       </c>
@@ -7035,8 +8317,12 @@
       <c r="E321">
         <v>352000</v>
       </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F321">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>325</v>
       </c>
@@ -7052,8 +8338,12 @@
       <c r="E322">
         <v>353100</v>
       </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F322">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>326</v>
       </c>
@@ -7069,8 +8359,12 @@
       <c r="E323">
         <v>354200</v>
       </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F323">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>327</v>
       </c>
@@ -7086,8 +8380,12 @@
       <c r="E324">
         <v>355300</v>
       </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F324">
+        <f t="shared" ref="F324:F387" si="5">ROUND(1-C324/E324, 2)*100</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>328</v>
       </c>
@@ -7103,8 +8401,12 @@
       <c r="E325">
         <v>356400</v>
       </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F325">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>329</v>
       </c>
@@ -7120,8 +8422,12 @@
       <c r="E326">
         <v>357500</v>
       </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F326">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>330</v>
       </c>
@@ -7137,8 +8443,12 @@
       <c r="E327">
         <v>358600</v>
       </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F327">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>331</v>
       </c>
@@ -7154,8 +8464,12 @@
       <c r="E328">
         <v>359700</v>
       </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F328">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>332</v>
       </c>
@@ -7171,8 +8485,12 @@
       <c r="E329">
         <v>360800</v>
       </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F329">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>333</v>
       </c>
@@ -7188,8 +8506,12 @@
       <c r="E330">
         <v>361900</v>
       </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F330">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>334</v>
       </c>
@@ -7205,8 +8527,12 @@
       <c r="E331">
         <v>363000</v>
       </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F331">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>335</v>
       </c>
@@ -7222,8 +8548,12 @@
       <c r="E332">
         <v>364100</v>
       </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F332">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>336</v>
       </c>
@@ -7239,8 +8569,12 @@
       <c r="E333">
         <v>365200</v>
       </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F333">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>337</v>
       </c>
@@ -7256,8 +8590,12 @@
       <c r="E334">
         <v>366300</v>
       </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F334">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>338</v>
       </c>
@@ -7273,8 +8611,12 @@
       <c r="E335">
         <v>367400</v>
       </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F335">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>339</v>
       </c>
@@ -7290,8 +8632,12 @@
       <c r="E336">
         <v>368500</v>
       </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F336">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>340</v>
       </c>
@@ -7307,8 +8653,12 @@
       <c r="E337">
         <v>369600</v>
       </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F337">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>341</v>
       </c>
@@ -7324,8 +8674,12 @@
       <c r="E338">
         <v>370700</v>
       </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F338">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>342</v>
       </c>
@@ -7341,8 +8695,12 @@
       <c r="E339">
         <v>371800</v>
       </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F339">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>343</v>
       </c>
@@ -7358,8 +8716,12 @@
       <c r="E340">
         <v>372900</v>
       </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F340">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>344</v>
       </c>
@@ -7375,8 +8737,12 @@
       <c r="E341">
         <v>374000</v>
       </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F341">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>345</v>
       </c>
@@ -7392,8 +8758,12 @@
       <c r="E342">
         <v>375100</v>
       </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F342">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>346</v>
       </c>
@@ -7409,8 +8779,12 @@
       <c r="E343">
         <v>376200</v>
       </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F343">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>347</v>
       </c>
@@ -7426,8 +8800,12 @@
       <c r="E344">
         <v>377300</v>
       </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F344">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>348</v>
       </c>
@@ -7443,8 +8821,12 @@
       <c r="E345">
         <v>378400</v>
       </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F345">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>349</v>
       </c>
@@ -7460,8 +8842,12 @@
       <c r="E346">
         <v>379500</v>
       </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F346">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>350</v>
       </c>
@@ -7477,8 +8863,12 @@
       <c r="E347">
         <v>380600</v>
       </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F347">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>351</v>
       </c>
@@ -7494,8 +8884,12 @@
       <c r="E348">
         <v>381700</v>
       </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F348">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>352</v>
       </c>
@@ -7511,8 +8905,12 @@
       <c r="E349">
         <v>382800</v>
       </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F349">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>353</v>
       </c>
@@ -7528,8 +8926,12 @@
       <c r="E350">
         <v>383900</v>
       </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F350">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>354</v>
       </c>
@@ -7545,8 +8947,12 @@
       <c r="E351">
         <v>385000</v>
       </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F351">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>355</v>
       </c>
@@ -7562,8 +8968,12 @@
       <c r="E352">
         <v>386100</v>
       </c>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F352">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>356</v>
       </c>
@@ -7579,8 +8989,12 @@
       <c r="E353">
         <v>387200</v>
       </c>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F353">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>357</v>
       </c>
@@ -7596,8 +9010,12 @@
       <c r="E354">
         <v>388300</v>
       </c>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F354">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>358</v>
       </c>
@@ -7613,8 +9031,12 @@
       <c r="E355">
         <v>389400</v>
       </c>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F355">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>359</v>
       </c>
@@ -7630,8 +9052,12 @@
       <c r="E356">
         <v>390500</v>
       </c>
-    </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F356">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>360</v>
       </c>
@@ -7647,8 +9073,12 @@
       <c r="E357">
         <v>391600</v>
       </c>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F357">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>361</v>
       </c>
@@ -7664,8 +9094,12 @@
       <c r="E358">
         <v>392700</v>
       </c>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F358">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>362</v>
       </c>
@@ -7681,8 +9115,12 @@
       <c r="E359">
         <v>393800</v>
       </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F359">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>363</v>
       </c>
@@ -7698,8 +9136,12 @@
       <c r="E360">
         <v>394900</v>
       </c>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F360">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>364</v>
       </c>
@@ -7715,8 +9157,12 @@
       <c r="E361">
         <v>396000</v>
       </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F361">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>365</v>
       </c>
@@ -7732,8 +9178,12 @@
       <c r="E362">
         <v>397100</v>
       </c>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F362">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>366</v>
       </c>
@@ -7749,8 +9199,12 @@
       <c r="E363">
         <v>398200</v>
       </c>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F363">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>367</v>
       </c>
@@ -7766,8 +9220,12 @@
       <c r="E364">
         <v>399300</v>
       </c>
-    </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F364">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>368</v>
       </c>
@@ -7783,8 +9241,12 @@
       <c r="E365">
         <v>400400</v>
       </c>
-    </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F365">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>369</v>
       </c>
@@ -7800,8 +9262,12 @@
       <c r="E366">
         <v>401500</v>
       </c>
-    </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F366">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>370</v>
       </c>
@@ -7817,8 +9283,12 @@
       <c r="E367">
         <v>402600</v>
       </c>
-    </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F367">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>371</v>
       </c>
@@ -7834,8 +9304,12 @@
       <c r="E368">
         <v>403700</v>
       </c>
-    </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F368">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>372</v>
       </c>
@@ -7851,8 +9325,12 @@
       <c r="E369">
         <v>404800</v>
       </c>
-    </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F369">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>373</v>
       </c>
@@ -7868,8 +9346,12 @@
       <c r="E370">
         <v>405900</v>
       </c>
-    </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F370">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>374</v>
       </c>
@@ -7885,8 +9367,12 @@
       <c r="E371">
         <v>407000</v>
       </c>
-    </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F371">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>375</v>
       </c>
@@ -7902,8 +9388,12 @@
       <c r="E372">
         <v>408100</v>
       </c>
-    </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F372">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>376</v>
       </c>
@@ -7919,8 +9409,12 @@
       <c r="E373">
         <v>409200</v>
       </c>
-    </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F373">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>377</v>
       </c>
@@ -7936,8 +9430,12 @@
       <c r="E374">
         <v>410300</v>
       </c>
-    </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F374">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>378</v>
       </c>
@@ -7953,8 +9451,12 @@
       <c r="E375">
         <v>411400</v>
       </c>
-    </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F375">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>379</v>
       </c>
@@ -7970,8 +9472,12 @@
       <c r="E376">
         <v>412500</v>
       </c>
-    </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F376">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>380</v>
       </c>
@@ -7987,8 +9493,12 @@
       <c r="E377">
         <v>413600</v>
       </c>
-    </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F377">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>381</v>
       </c>
@@ -8004,8 +9514,12 @@
       <c r="E378">
         <v>414700</v>
       </c>
-    </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F378">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>382</v>
       </c>
@@ -8021,8 +9535,12 @@
       <c r="E379">
         <v>415800</v>
       </c>
-    </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F379">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>383</v>
       </c>
@@ -8038,8 +9556,12 @@
       <c r="E380">
         <v>416900</v>
       </c>
-    </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F380">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>384</v>
       </c>
@@ -8055,8 +9577,12 @@
       <c r="E381">
         <v>418000</v>
       </c>
-    </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F381">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>385</v>
       </c>
@@ -8072,8 +9598,12 @@
       <c r="E382">
         <v>419100</v>
       </c>
-    </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F382">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>386</v>
       </c>
@@ -8089,8 +9619,12 @@
       <c r="E383">
         <v>420200</v>
       </c>
-    </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F383">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>387</v>
       </c>
@@ -8106,8 +9640,12 @@
       <c r="E384">
         <v>421300</v>
       </c>
-    </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F384">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>388</v>
       </c>
@@ -8123,8 +9661,12 @@
       <c r="E385">
         <v>422400</v>
       </c>
-    </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F385">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>389</v>
       </c>
@@ -8140,8 +9682,12 @@
       <c r="E386">
         <v>423500</v>
       </c>
-    </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F386">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>390</v>
       </c>
@@ -8157,8 +9703,12 @@
       <c r="E387">
         <v>424600</v>
       </c>
-    </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F387">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>391</v>
       </c>
@@ -8174,8 +9724,12 @@
       <c r="E388">
         <v>425700</v>
       </c>
-    </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F388">
+        <f t="shared" ref="F388:F400" si="6">ROUND(1-C388/E388, 2)*100</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>392</v>
       </c>
@@ -8191,8 +9745,12 @@
       <c r="E389">
         <v>426800</v>
       </c>
-    </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F389">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>393</v>
       </c>
@@ -8208,8 +9766,12 @@
       <c r="E390">
         <v>427900</v>
       </c>
-    </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F390">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>394</v>
       </c>
@@ -8225,8 +9787,12 @@
       <c r="E391">
         <v>429000</v>
       </c>
-    </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F391">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>395</v>
       </c>
@@ -8242,8 +9808,12 @@
       <c r="E392">
         <v>430100</v>
       </c>
-    </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F392">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>396</v>
       </c>
@@ -8259,8 +9829,12 @@
       <c r="E393">
         <v>431200</v>
       </c>
-    </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F393">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>397</v>
       </c>
@@ -8276,8 +9850,12 @@
       <c r="E394">
         <v>432300</v>
       </c>
-    </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F394">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>398</v>
       </c>
@@ -8293,8 +9871,12 @@
       <c r="E395">
         <v>433400</v>
       </c>
-    </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F395">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>399</v>
       </c>
@@ -8310,8 +9892,12 @@
       <c r="E396">
         <v>434500</v>
       </c>
-    </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F396">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>400</v>
       </c>
@@ -8327,8 +9913,12 @@
       <c r="E397">
         <v>435600</v>
       </c>
-    </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F397">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>401</v>
       </c>
@@ -8344,8 +9934,12 @@
       <c r="E398">
         <v>436700</v>
       </c>
-    </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F398">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>402</v>
       </c>
@@ -8361,8 +9955,12 @@
       <c r="E399">
         <v>437800</v>
       </c>
-    </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F399">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>403</v>
       </c>
@@ -8377,6 +9975,10 @@
       </c>
       <c r="E400">
         <v>438900</v>
+      </c>
+      <c r="F400">
+        <f t="shared" si="6"/>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
